--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2241691912335538</v>
+        <v>0.2207889299536835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7047523903097295</v>
+        <v>0.6932684318411844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8210890314801965</v>
+        <v>0.8108217531970191</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2207889299536835</v>
+        <v>0.2238688329266903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6932684318411844</v>
+        <v>0.7039519630242959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8108217531970191</v>
+        <v>0.8195758580839311</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2238688329266903</v>
+        <v>0.222774232748262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7039519630242959</v>
+        <v>0.7003879058067004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8195758580839311</v>
+        <v>0.8158865875699469</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1208054456504711</v>
+        <v>5.72876977911468</v>
       </c>
       <c r="C2" t="n">
         <v>0.3834132358208354</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5143595585917815</v>
+        <v>0.1471264812484826</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1349223430041973</v>
+        <v>6.584826024963478</v>
       </c>
       <c r="C3" t="n">
         <v>0.4322333445559737</v>
       </c>
       <c r="D3" t="n">
-        <v>0.592187813891019</v>
+        <v>0.1693883351454626</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1196497637717896</v>
+        <v>5.669651687891178</v>
       </c>
       <c r="C4" t="n">
         <v>0.3792396615902276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.510195051274618</v>
+        <v>0.1459352730800463</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1198543500043182</v>
+        <v>5.731197146917095</v>
       </c>
       <c r="C5" t="n">
         <v>0.3826109867347375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5081143502450339</v>
+        <v>0.1453401131070287</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1242137937376757</v>
+        <v>5.901889661688956</v>
       </c>
       <c r="C6" t="n">
         <v>0.3952839986351462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5265590085866712</v>
+        <v>0.1506159899412517</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1256868233307268</v>
+        <v>6.058083483546633</v>
       </c>
       <c r="C7" t="n">
         <v>0.4047429832625483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5384467826879761</v>
+        <v>0.1540163474230691</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1355761311271251</v>
+        <v>6.605252361030292</v>
       </c>
       <c r="C8" t="n">
         <v>0.4339729008494033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5937102172193223</v>
+        <v>0.1698238006500747</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1358952783951662</v>
+        <v>6.616657232174582</v>
       </c>
       <c r="C9" t="n">
         <v>0.4350491320780381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5964638306930575</v>
+        <v>0.1706114392860092</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.827037798207543</v>
+        <v>74.21001601036046</v>
       </c>
       <c r="C10" t="n">
         <v>25.48346263677054</v>
       </c>
       <c r="D10" t="n">
-        <v>25.48352210029341</v>
+        <v>5.748090688791893</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.222774232748262</v>
+        <v>9.401372101486817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7003879058067004</v>
+        <v>0.6948597380322106</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8158865875699469</v>
+        <v>0.2321954118288959</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2817696455973338</v>
+        <v>11.77018658430708</v>
       </c>
       <c r="C12" t="n">
         <v>0.9016957005570875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9979464851422667</v>
+        <v>0.2854508142810642</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2106845803969939</v>
+        <v>8.206618027061662</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6592691088696415</v>
+        <v>0.5990787654435735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7796071357116603</v>
+        <v>0.1872760337803207</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.72876977911468</v>
+        <v>5.728769779106237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3834132358208354</v>
+        <v>0.3834132358204451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1471264812484826</v>
+        <v>0.1471264812484264</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.584826024963478</v>
+        <v>6.584826024959732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4322333445559737</v>
+        <v>0.4322333445557552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1693883351454626</v>
+        <v>0.1693883351453731</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.669651687891178</v>
+        <v>5.669651687993242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3792396615902276</v>
+        <v>0.3792396615971649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1459352730800463</v>
+        <v>0.1459352730829202</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.731197146917095</v>
+        <v>5.713913496631781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3826109867347375</v>
+        <v>0.3816011288625984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1453401131070287</v>
+        <v>0.1450081956811513</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.901889661688956</v>
+        <v>5.915504024365446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3952839986351462</v>
+        <v>0.3962151926296516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1506159899412517</v>
+        <v>0.1509469139365704</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.058083483546633</v>
+        <v>6.080004389764944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4047429832625483</v>
+        <v>0.4061728874939541</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1540163474230691</v>
+        <v>0.1545592625210105</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.605252361030292</v>
+        <v>6.604215476144843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4339729008494033</v>
+        <v>0.4339104886948405</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1698238006500747</v>
+        <v>0.1697998013769325</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.616657232174582</v>
+        <v>6.615497779074582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4350491320780381</v>
+        <v>0.43498359868505</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1706114392860092</v>
+        <v>0.1705693521403999</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.21001601036046</v>
+        <v>4.97966703448636</v>
       </c>
       <c r="C10" t="n">
-        <v>25.48346263677054</v>
+        <v>0.4269645194056881</v>
       </c>
       <c r="D10" t="n">
-        <v>5.748090688791893</v>
+        <v>0.1146191915947487</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.401372101486817</v>
+        <v>9.361486095151493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6948597380322106</v>
+        <v>0.6914758253118308</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2321954118288959</v>
+        <v>0.2314140363738244</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.77018658430708</v>
+        <v>9.528512329643805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9016957005570875</v>
+        <v>0.7055894284866058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2854508142810642</v>
+        <v>0.2337536779567424</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.206618027061662</v>
+        <v>9.169792068952273</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5990787654435735</v>
+        <v>0.6812602140529413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1872760337803207</v>
+        <v>0.2060361840739774</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.361486095151493</v>
+        <v>9.344773146276111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6914758253118308</v>
+        <v>0.6900549770059162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2314140363738244</v>
+        <v>0.231028473060324</v>
       </c>
     </row>
     <row r="12">
